--- a/AccDemo3.xlsx
+++ b/AccDemo3.xlsx
@@ -52,27 +52,72 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Account Name  @ Valid value for required field Account Name, value should be  Test for Workflow Process.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>View Account</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Account Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on Account name to View the Details</x:t>
   </x:si>
   <x:si>
@@ -94,33 +139,6 @@
     <x:t>User is navigated to the Account Details page</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for required field Account Name  @ Valid value for required field Account Name, value should be  Test for Workflow Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
     <x:t>User should be able to validate that the Account is edited</x:t>
   </x:si>
   <x:si>
@@ -146,24 +164,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -631,7 +631,9 @@
       <x:c r="H2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s"/>
+      <x:c r="I2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
     </x:row>
@@ -640,42 +642,38 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
       <x:c r="K3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:11">
-      <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -686,38 +684,42 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -730,7 +732,7 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>34</x:v>
@@ -763,7 +765,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -774,15 +776,17 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -793,65 +797,63 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -862,17 +864,15 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -885,10 +885,10 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
         <x:v>49</x:v>
